--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lama1-Itga2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lama1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H2">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.65732958697911</v>
+        <v>3.042935333333334</v>
       </c>
       <c r="N2">
-        <v>1.65732958697911</v>
+        <v>9.128806000000001</v>
       </c>
       <c r="O2">
-        <v>0.3967744199406166</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="P2">
-        <v>0.3967744199406166</v>
+        <v>0.5831288282815508</v>
       </c>
       <c r="Q2">
-        <v>0.8202399950747802</v>
+        <v>1.700204616587778</v>
       </c>
       <c r="R2">
-        <v>0.8202399950747802</v>
+        <v>15.30184154929</v>
       </c>
       <c r="S2">
-        <v>0.3967744199406166</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="T2">
-        <v>0.3967744199406166</v>
+        <v>0.5831288282815508</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +596,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H3">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.01028305160397</v>
+        <v>1.067915666666667</v>
       </c>
       <c r="N3">
-        <v>1.01028305160397</v>
+        <v>3.203747</v>
       </c>
       <c r="O3">
-        <v>0.2418676857791798</v>
+        <v>0.1879902916822836</v>
       </c>
       <c r="P3">
-        <v>0.2418676857791798</v>
+        <v>0.2046485853922773</v>
       </c>
       <c r="Q3">
-        <v>0.5000058961007491</v>
+        <v>0.5966854197338889</v>
       </c>
       <c r="R3">
-        <v>0.5000058961007491</v>
+        <v>5.370168777605</v>
       </c>
       <c r="S3">
-        <v>0.2418676857791798</v>
+        <v>0.1879902916822836</v>
       </c>
       <c r="T3">
-        <v>0.2418676857791798</v>
+        <v>0.2046485853922773</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H4">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,31 +679,31 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.155290287716967</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N4">
-        <v>0.155290287716967</v>
+        <v>0.06775</v>
       </c>
       <c r="O4">
-        <v>0.03717740533650878</v>
+        <v>0.003975451950942043</v>
       </c>
       <c r="P4">
-        <v>0.03717740533650878</v>
+        <v>0.004327726771285868</v>
       </c>
       <c r="Q4">
-        <v>0.07685574784451835</v>
+        <v>0.01261817402777778</v>
       </c>
       <c r="R4">
-        <v>0.07685574784451835</v>
+        <v>0.11356356625</v>
       </c>
       <c r="S4">
-        <v>0.03717740533650878</v>
+        <v>0.003975451950942043</v>
       </c>
       <c r="T4">
-        <v>0.03717740533650878</v>
+        <v>0.004327726771285868</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +720,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H5">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +738,96 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.35410421853342</v>
+        <v>0.160044</v>
       </c>
       <c r="N5">
-        <v>1.35410421853342</v>
+        <v>0.480132</v>
       </c>
       <c r="O5">
-        <v>0.3241804889436948</v>
+        <v>0.02817330916767092</v>
       </c>
       <c r="P5">
-        <v>0.3241804889436948</v>
+        <v>0.03066981712400039</v>
       </c>
       <c r="Q5">
-        <v>0.6701687137349049</v>
+        <v>0.08942271782</v>
       </c>
       <c r="R5">
-        <v>0.6701687137349049</v>
+        <v>0.80480446038</v>
       </c>
       <c r="S5">
-        <v>0.3241804889436948</v>
+        <v>0.02817330916767092</v>
       </c>
       <c r="T5">
-        <v>0.3241804889436948</v>
+        <v>0.03066981712400039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.5587383333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.676215</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.3872175</v>
+      </c>
+      <c r="N6">
+        <v>2.774435</v>
+      </c>
+      <c r="O6">
+        <v>0.2441985173471266</v>
+      </c>
+      <c r="P6">
+        <v>0.1772250424308857</v>
+      </c>
+      <c r="Q6">
+        <v>0.7750915939208334</v>
+      </c>
+      <c r="R6">
+        <v>4.650549563525</v>
+      </c>
+      <c r="S6">
+        <v>0.2441985173471266</v>
+      </c>
+      <c r="T6">
+        <v>0.1772250424308857</v>
       </c>
     </row>
   </sheetData>
